--- a/results_analysis/ksom_cervicalCancer_02_hold_01_best.xlsx
+++ b/results_analysis/ksom_cervicalCancer_02_hold_01_best.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83055503-49F5-4797-9EDB-80CFDB61FC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A1F0C5-67EE-48F7-AD0B-FA0924CCD702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE0D8406-1939-42F0-B5EC-F1A66084C35D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{FE0D8406-1939-42F0-B5EC-F1A66084C35D}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_hp_best" sheetId="1" r:id="rId1"/>
     <sheet name="acc_mean" sheetId="2" r:id="rId2"/>
     <sheet name="acc_median" sheetId="5" r:id="rId3"/>
-    <sheet name="MCC" sheetId="3" r:id="rId4"/>
-    <sheet name="F1S" sheetId="4" r:id="rId5"/>
+    <sheet name="acc_std" sheetId="6" r:id="rId4"/>
+    <sheet name="MCC" sheetId="3" r:id="rId5"/>
+    <sheet name="F1S" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="19">
   <si>
     <t>Algorithm</t>
   </si>
@@ -524,6 +525,24 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,24 +550,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -887,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A889A0D-6079-4851-A2AA-AD4BB1CBB64D}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -939,28 +940,28 @@
       <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="30">
         <v>0.94202898550724601</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <v>0.938405797101449</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="30">
         <v>0.92391304347826098</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="30">
         <v>0.92391304347826098</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="30">
         <v>0.93115942028985499</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="30">
         <v>0.92753623188405798</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="30">
         <v>0.92028985507246397</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="31">
         <v>0.92028985507246397</v>
       </c>
     </row>
@@ -969,28 +970,28 @@
       <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>0.934782608695652</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="32">
         <v>0.92028985507246397</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="32">
         <v>0.94565217391304401</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="32">
         <v>0.92753623188405798</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="32">
         <v>0.92753623188405798</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="32">
         <v>0.92391304347826098</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="32">
         <v>0.934782608695652</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="33">
         <v>0.92391304347826098</v>
       </c>
     </row>
@@ -999,28 +1000,28 @@
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>0.93115942028985499</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="32">
         <v>0.93115942028985499</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="32">
         <v>0.93115942028985499</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="32">
         <v>0.92753623188405798</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="32">
         <v>0.92028985507246397</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="32">
         <v>0.93115942028985499</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="32">
         <v>0.92391304347826098</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="33">
         <v>0.92391304347826098</v>
       </c>
     </row>
@@ -1031,28 +1032,28 @@
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="32">
         <v>0.934782608695652</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="32">
         <v>0.93115942028985499</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="32">
         <v>0.91666666666666696</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="32">
         <v>0.92028985507246397</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="32">
         <v>0.92753623188405798</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="32">
         <v>0.92028985507246397</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="32">
         <v>0.92028985507246397</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="33">
         <v>0.92753623188405798</v>
       </c>
     </row>
@@ -1061,28 +1062,28 @@
       <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>0.934782608695652</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="32">
         <v>0.92028985507246397</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="32">
         <v>0.934782608695652</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="32">
         <v>0.92028985507246397</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="32">
         <v>0.92028985507246397</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="32">
         <v>0.92028985507246397</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="32">
         <v>0.934782608695652</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="33">
         <v>0.92753623188405798</v>
       </c>
     </row>
@@ -1091,28 +1092,28 @@
       <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="34">
         <v>0.92028985507246397</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="34">
         <v>0.92028985507246397</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="34">
         <v>0.92753623188405798</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="34">
         <v>0.934782608695652</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="34">
         <v>0.92391304347826098</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="34">
         <v>0.92753623188405798</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="34">
         <v>0.92753623188405798</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="35">
         <v>0.938405797101449</v>
       </c>
     </row>
@@ -1124,29 +1125,29 @@
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="30" t="s">
+      <c r="K11" s="37"/>
+      <c r="L11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="30" t="s">
+      <c r="M11" s="37"/>
+      <c r="N11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="32"/>
+      <c r="O11" s="38"/>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
@@ -1535,28 +1536,28 @@
       <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="30">
         <v>0.88797101449275395</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <v>0.89115942028985495</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="30">
         <v>0.88963768115941999</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="30">
         <v>0.88789855072463797</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="30">
         <v>0.88876811594202898</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="30">
         <v>0.88659420289855095</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="30">
         <v>0.88797101449275395</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="31">
         <v>0.88916666666666699</v>
       </c>
     </row>
@@ -1565,28 +1566,28 @@
       <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>0.87811594202898602</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="32">
         <v>0.88608695652173897</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="32">
         <v>0.88536231884058003</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="32">
         <v>0.88876811594202898</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="32">
         <v>0.88177536231884102</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="32">
         <v>0.83902173913043498</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="32">
         <v>0.88764492753623203</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="33">
         <v>0.88702898550724596</v>
       </c>
     </row>
@@ -1595,28 +1596,28 @@
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>0.87373188405797098</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="32">
         <v>0.89</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="32">
         <v>0.869057971014493</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="32">
         <v>0.86568840579710105</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="32">
         <v>0.86536231884058001</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="32">
         <v>0.879565217391304</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="32">
         <v>0.87289855072463796</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="33">
         <v>0.87394927536231903</v>
       </c>
     </row>
@@ -1627,28 +1628,28 @@
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="32">
         <v>0.885507246376811</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="32">
         <v>0.88851449275362304</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="32">
         <v>0.88880434782608697</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="32">
         <v>0.88213768115942004</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="32">
         <v>0.88692028985507299</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="32">
         <v>0.88724637681159402</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="32">
         <v>0.88909420289855101</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="33">
         <v>0.88358695652173902</v>
       </c>
     </row>
@@ -1657,28 +1658,28 @@
       <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>0.88362318840579701</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="32">
         <v>0.87576086956521704</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="32">
         <v>0.88076086956521704</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="32">
         <v>0.87971014492753596</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="32">
         <v>0.88728260869565201</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="32">
         <v>0.88561594202898597</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="32">
         <v>0.88452898550724701</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="33">
         <v>0.88144927536231898</v>
       </c>
     </row>
@@ -1687,28 +1688,28 @@
       <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="34">
         <v>0.87340579710144906</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="34">
         <v>0.87391304347826104</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="34">
         <v>0.881376811594203</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="34">
         <v>0.88188405797101399</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="34">
         <v>0.87641304347826099</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="34">
         <v>0.87039855072463801</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="34">
         <v>0.87347826086956504</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="35">
         <v>0.88076086956521704</v>
       </c>
     </row>
@@ -1771,28 +1772,28 @@
       <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="30">
         <v>0.89130434782608703</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <v>0.89130434782608703</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="30">
         <v>0.88768115942029002</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="30">
         <v>0.88405797101449302</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="30">
         <v>0.88768115942029002</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="30">
         <v>0.88768115942029002</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="30">
         <v>0.88949275362318803</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="31">
         <v>0.89130434782608703</v>
       </c>
     </row>
@@ -1801,28 +1802,28 @@
       <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>0.88768115942029002</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="32">
         <v>0.88768115942029002</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="32">
         <v>0.88768115942029002</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="32">
         <v>0.88768115942029002</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="32">
         <v>0.88405797101449302</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="32">
         <v>0.876811594202899</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="32">
         <v>0.88768115942029002</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="33">
         <v>0.88405797101449302</v>
       </c>
     </row>
@@ -1831,28 +1832,28 @@
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>0.88043478260869601</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="32">
         <v>0.89130434782608703</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="32">
         <v>0.88405797101449302</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="32">
         <v>0.873188405797101</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="32">
         <v>0.876811594202899</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="32">
         <v>0.88405797101449302</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="32">
         <v>0.88405797101449302</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="33">
         <v>0.88405797101449302</v>
       </c>
     </row>
@@ -1863,28 +1864,28 @@
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="32">
         <v>0.88768115942029002</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="32">
         <v>0.88768115942029002</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="32">
         <v>0.89130434782608703</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="32">
         <v>0.88043478260869601</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="32">
         <v>0.88768115942029002</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="32">
         <v>0.88768115942029002</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="32">
         <v>0.89130434782608703</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="33">
         <v>0.88405797101449302</v>
       </c>
     </row>
@@ -1893,28 +1894,28 @@
       <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>0.88405797101449302</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="32">
         <v>0.88405797101449302</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="32">
         <v>0.88768115942029002</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="32">
         <v>0.88405797101449302</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="32">
         <v>0.88949275362318803</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="32">
         <v>0.88768115942029002</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="32">
         <v>0.89130434782608703</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="33">
         <v>0.88768115942029002</v>
       </c>
     </row>
@@ -1923,28 +1924,28 @@
       <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="34">
         <v>0.88405797101449302</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="34">
         <v>0.88405797101449302</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="34">
         <v>0.88768115942029002</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="34">
         <v>0.88768115942029002</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="34">
         <v>0.88768115942029002</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="34">
         <v>0.88405797101449302</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="34">
         <v>0.88224637681159401</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="35">
         <v>0.88768115942029002</v>
       </c>
     </row>
@@ -1954,6 +1955,242 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6F2DDA-4E54-43D7-9097-5DDBC7D01D04}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="30">
+        <v>1.54551625826535E-2</v>
+      </c>
+      <c r="D3" s="30">
+        <v>1.50221704070163E-2</v>
+      </c>
+      <c r="E3" s="30">
+        <v>1.3194083276382799E-2</v>
+      </c>
+      <c r="F3" s="30">
+        <v>1.50477469827754E-2</v>
+      </c>
+      <c r="G3" s="30">
+        <v>1.70682246003863E-2</v>
+      </c>
+      <c r="H3" s="30">
+        <v>1.45247414519067E-2</v>
+      </c>
+      <c r="I3" s="30">
+        <v>1.5608833547689899E-2</v>
+      </c>
+      <c r="J3" s="31">
+        <v>1.5569834102901799E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="32">
+        <v>4.2179524342461E-2</v>
+      </c>
+      <c r="D4" s="32">
+        <v>1.7511660831296499E-2</v>
+      </c>
+      <c r="E4" s="32">
+        <v>2.9995045619344199E-2</v>
+      </c>
+      <c r="F4" s="32">
+        <v>1.4822947650878099E-2</v>
+      </c>
+      <c r="G4" s="32">
+        <v>1.6779538935092601E-2</v>
+      </c>
+      <c r="H4" s="32">
+        <v>8.1636949120919997E-2</v>
+      </c>
+      <c r="I4" s="32">
+        <v>1.7946765329920698E-2</v>
+      </c>
+      <c r="J4" s="33">
+        <v>1.3802744054926199E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="32">
+        <v>3.7311449211395099E-2</v>
+      </c>
+      <c r="D5" s="32">
+        <v>1.7345802477077201E-2</v>
+      </c>
+      <c r="E5" s="32">
+        <v>3.6693805583156699E-2</v>
+      </c>
+      <c r="F5" s="32">
+        <v>3.4867651945461202E-2</v>
+      </c>
+      <c r="G5" s="32">
+        <v>4.09195620974767E-2</v>
+      </c>
+      <c r="H5" s="32">
+        <v>2.8990630494380401E-2</v>
+      </c>
+      <c r="I5" s="32">
+        <v>3.8360402734923499E-2</v>
+      </c>
+      <c r="J5" s="33">
+        <v>3.5542015995084303E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1.6219749945208101E-2</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1.7492985519293201E-2</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1.49138697348136E-2</v>
+      </c>
+      <c r="F6" s="32">
+        <v>1.8348348220598099E-2</v>
+      </c>
+      <c r="G6" s="32">
+        <v>1.6705407419677201E-2</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1.6408966713320601E-2</v>
+      </c>
+      <c r="I6" s="32">
+        <v>1.49156478520945E-2</v>
+      </c>
+      <c r="J6" s="33">
+        <v>1.7430716760058799E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="32">
+        <v>2.15078212811055E-2</v>
+      </c>
+      <c r="D7" s="32">
+        <v>3.7438887465157202E-2</v>
+      </c>
+      <c r="E7" s="32">
+        <v>3.6917445419951303E-2</v>
+      </c>
+      <c r="F7" s="32">
+        <v>3.4729501251500199E-2</v>
+      </c>
+      <c r="G7" s="32">
+        <v>1.6177961322973999E-2</v>
+      </c>
+      <c r="H7" s="32">
+        <v>2.5428917933143301E-2</v>
+      </c>
+      <c r="I7" s="32">
+        <v>4.1113324340611497E-2</v>
+      </c>
+      <c r="J7" s="33">
+        <v>3.5143512641925397E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="34">
+        <v>4.17602679727999E-2</v>
+      </c>
+      <c r="D8" s="34">
+        <v>4.0155044183267298E-2</v>
+      </c>
+      <c r="E8" s="34">
+        <v>3.1200246971355199E-2</v>
+      </c>
+      <c r="F8" s="34">
+        <v>3.4889493219671601E-2</v>
+      </c>
+      <c r="G8" s="34">
+        <v>3.71387567639547E-2</v>
+      </c>
+      <c r="H8" s="34">
+        <v>4.9528569060905997E-2</v>
+      </c>
+      <c r="I8" s="34">
+        <v>4.0064725849007998E-2</v>
+      </c>
+      <c r="J8" s="35">
+        <v>2.7766294813922399E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF95E80-F9D6-4C97-A976-8D8517BE58EB}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -2007,28 +2244,28 @@
       <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="30">
         <v>0.91481481481481497</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <v>0.90414904700619003</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="30">
         <v>0.88751528324955897</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="30">
         <v>0.88316165057350804</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="30">
         <v>0.89565217391304397</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="30">
         <v>0.87787610619469003</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="30">
         <v>0.86352602715094895</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="31">
         <v>0.88287037037036997</v>
       </c>
     </row>
@@ -2037,28 +2274,28 @@
       <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>0.90050468637346803</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="32">
         <v>0.88425467022493298</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="32">
         <v>0.90911286250576295</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="32">
         <v>0.88152472527472503</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="32">
         <v>0.88152472527472503</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="32">
         <v>0.88466819221967996</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="32">
         <v>0.89781982723159204</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="33">
         <v>0.88751528324955897</v>
       </c>
     </row>
@@ -2067,28 +2304,28 @@
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>0.88118273479098197</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="32">
         <v>0.88306910161214802</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="32">
         <v>0.88118273479098197</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="32">
         <v>0.89221276263375804</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="32">
         <v>0.88143403889713401</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="32">
         <v>0.88487629250730004</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="32">
         <v>0.88466819221967996</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="33">
         <v>0.86867565424266502</v>
       </c>
     </row>
@@ -2099,28 +2336,28 @@
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="32">
         <v>0.89491496742533205</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="32">
         <v>0.88118273479098197</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="32">
         <v>0.86273704240275095</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="32">
         <v>0.87156273796429495</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="32">
         <v>0.86724386724386704</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="32">
         <v>0.87839461667868302</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="32">
         <v>0.86771241830065404</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="33">
         <v>0.88488488488488504</v>
       </c>
     </row>
@@ -2129,28 +2366,28 @@
       <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>0.90529927563858203</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="32">
         <v>0.86352602715094795</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="32">
         <v>0.89918831168831204</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="32">
         <v>0.88425467022493298</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="32">
         <v>0.87839461667868302</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="32">
         <v>0.87337337337337295</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="32">
         <v>0.89008849557522096</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="33">
         <v>0.86956521739130399</v>
       </c>
     </row>
@@ -2159,28 +2396,28 @@
       <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="34">
         <v>0.88425467022493298</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="34">
         <v>0.86967719780219799</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="34">
         <v>0.88323885269481295</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="34">
         <v>0.89491496742533205</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="34">
         <v>0.88466819221967996</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="34">
         <v>0.89085732363176195</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="34">
         <v>0.88323885269481295</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="35">
         <v>0.895377617231922</v>
       </c>
     </row>
@@ -2189,7 +2426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B47BB03-5D51-4927-8C90-D8C37E699AAE}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -2243,28 +2480,28 @@
       <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="30">
         <v>0.84266484061781399</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <v>0.82453506814605504</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="30">
         <v>0.79702088476331601</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="30">
         <v>0.78986112514474704</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="30">
         <v>0.81038041555213303</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="30">
         <v>0.78113346588494303</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="30">
         <v>0.75814900644028205</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="31">
         <v>0.78946497591175702</v>
       </c>
     </row>
@@ -2273,28 +2510,28 @@
       <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>0.81844759107113496</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="32">
         <v>0.79173458798836704</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="32">
         <v>0.83285714775282604</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="32">
         <v>0.78709609621796195</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="32">
         <v>0.78709609621796195</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="32">
         <v>0.79233419430742102</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="32">
         <v>0.81394102980498495</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="33">
         <v>0.79702088476331601</v>
       </c>
     </row>
@@ -2303,28 +2540,28 @@
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>0.78645228850525595</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="32">
         <v>0.78954675924421103</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="32">
         <v>0.78645228850525595</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="32">
         <v>0.80472174850131495</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="32">
         <v>0.78711426882025903</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="32">
         <v>0.79251820571074505</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="32">
         <v>0.79233419430742102</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="33">
         <v>0.76631474287303503</v>
       </c>
     </row>
@@ -2335,28 +2572,28 @@
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="32">
         <v>0.80908358051993801</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="32">
         <v>0.78645228850525595</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="32">
         <v>0.75699588931024397</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="32">
         <v>0.77107151552322395</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="32">
         <v>0.76390665403863101</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="32">
         <v>0.782153888875043</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="32">
         <v>0.76486543662265705</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="33">
         <v>0.79261135408262295</v>
       </c>
     </row>
@@ -2365,28 +2602,28 @@
       <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>0.82653691103672</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="32">
         <v>0.75259692777549203</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="32">
         <v>0.81623598450349399</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="32">
         <v>0.79173458798836704</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="32">
         <v>0.782153888875043</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="32">
         <v>0.769159302868343</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="32">
         <v>0.80105411980021701</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="33">
         <v>0.76764947357873903</v>
       </c>
     </row>
@@ -2395,28 +2632,28 @@
       <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="34">
         <v>0.79173458798836704</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="34">
         <v>0.76802883262324695</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="34">
         <v>0.78990669406327696</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="34">
         <v>0.80908358051993801</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="34">
         <v>0.79233419430742102</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="34">
         <v>0.80247295798501095</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="34">
         <v>0.78990669406327696</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="35">
         <v>0.80978969761622099</v>
       </c>
     </row>
